--- a/medicine/Mort/Cimetière_boisé_de_Berlin-Zehlendorf/Cimetière_boisé_de_Berlin-Zehlendorf.xlsx
+++ b/medicine/Mort/Cimetière_boisé_de_Berlin-Zehlendorf/Cimetière_boisé_de_Berlin-Zehlendorf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_bois%C3%A9_de_Berlin-Zehlendorf</t>
+          <t>Cimetière_boisé_de_Berlin-Zehlendorf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière boisé de Berlin-Zehlendorf (Waldfriedhof Berlin-Zehlendorf) est un cimetière boisé berlinois situé comme son nom ne l'indique pas à Berlin-Nikolassee. Construit dans l'immédiate après-guerre, il est remarquable par sa superficie de 375 794 m²[1] où reposent environ 40 000 défunts, dont 44 dans des tombes d'honneur[2]. Willy Brandt ou Ernst Reuter y sont notamment inhumés.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière boisé de Berlin-Zehlendorf (Waldfriedhof Berlin-Zehlendorf) est un cimetière boisé berlinois situé comme son nom ne l'indique pas à Berlin-Nikolassee. Construit dans l'immédiate après-guerre, il est remarquable par sa superficie de 375 794 m² où reposent environ 40 000 défunts, dont 44 dans des tombes d'honneur. Willy Brandt ou Ernst Reuter y sont notamment inhumés.
 La partie septentrionale du cimetière est conçue en 1945 et aménagée entre 1946 et 1947 par l'architecte-paysagiste Herta Hammerbacher. Un agrandissement a lieu entre 1948 et 1954 aménagé par le paysagiste Max Dietrich. Le cimetière était localisé sur une ancienne pinède vieille de 50 ans qui a été partiellement éclaircie. Il subsiste de nombreux arbres en plus des pins comme des chênes, des sorbiers ou des bouleaux. 
 Une partie de la zone funéraire est consacrée au mémorial pour les soldats italiens morts pendant la Seconde Guerre mondiale.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_bois%C3%A9_de_Berlin-Zehlendorf</t>
+          <t>Cimetière_boisé_de_Berlin-Zehlendorf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Tombes célèbres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Boleslaw Barlog (1906-1999), réalisateur et metteur en scène
 Hans Beirer (1911-1993), chanteur d'opéra
